--- a/output/adapt_lstm_many_item_400_2.xlsx
+++ b/output/adapt_lstm_many_item_400_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,42 +451,102 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MSE_transfer_rt</t>
+          <t>MSE_transfer_coral</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>MSE_transfer_sa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_transfer_bw</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_transfer_nnw</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MAE_no_transfer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MAE_transfer_basic</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MAE_transfer_rt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_transfer_coral</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_transfer_sa</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_transfer_bw</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_transfer_nnw</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>MSE_diff_basic</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>MSE_diff_rt</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_transfer_coral</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_diff_sa</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_diff_bw</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_diff_nnw</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MAE_diff_basic</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>MAE_diff_rt</t>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_transfer_coral</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_diff_sa</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_diff_bw</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_diff_nnw</t>
         </is>
       </c>
     </row>
@@ -497,34 +557,70 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.298592728145941</v>
+        <v>1.300493167645185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9935875671321551</v>
+        <v>1.000568226643996</v>
       </c>
       <c r="D2" t="n">
-        <v>1.136294945592903</v>
+        <v>1.367077284212216</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6953305596132365</v>
+        <v>1.300356127336072</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6789359799687099</v>
+        <v>1.053588503088057</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5485505730882042</v>
+        <v>1.13702385724122</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3050051610137857</v>
+        <v>0.6937269902233257</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1622977825530374</v>
+        <v>0.6807548401453892</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.01639457964452662</v>
+        <v>0.9693148174296417</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.1467799865250323</v>
+        <v>0.906898140459924</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7776672221506405</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.5497553639747121</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.299924941001189</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.06658411656703089</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.0001370403091132122</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2469046645571282</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.1634693104039648</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.01297215007793651</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.2755878272063159</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.2131711502365983</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.08394023192731481</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.1439716262486136</v>
       </c>
     </row>
     <row r="3">
@@ -534,34 +630,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.789978731434997</v>
+        <v>0.7858089996152173</v>
       </c>
       <c r="C3" t="n">
-        <v>1.018805256404182</v>
+        <v>0.9959746491911219</v>
       </c>
       <c r="D3" t="n">
-        <v>3.152334385755675</v>
+        <v>2.610539538751953</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5530104514365833</v>
+        <v>3.541888404581724</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6713883272874476</v>
+        <v>2.515436924917919</v>
       </c>
       <c r="G3" t="n">
-        <v>0.931633488562731</v>
+        <v>2.855604247748933</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2288265249691853</v>
+        <v>0.5457719070059673</v>
       </c>
       <c r="I3" t="n">
-        <v>2.362355654320678</v>
+        <v>0.664341957982579</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1183778758508642</v>
+        <v>1.129524704241595</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3786230371261476</v>
+        <v>1.2379582477458</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.06147489521414</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9761645511911143</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2101656495759046</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.824730539136736</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.756079404966506</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.729627925302702</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.069795248133715</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1185700509766117</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.5837527972356272</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.6921863407398331</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.5157029882081726</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.430392644185147</v>
       </c>
     </row>
     <row r="4">
@@ -571,34 +703,70 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.00847717581727</v>
+        <v>1.996350390516476</v>
       </c>
       <c r="C4" t="n">
-        <v>1.034626682685058</v>
+        <v>1.03790889963132</v>
       </c>
       <c r="D4" t="n">
-        <v>6.73955211157193</v>
+        <v>5.202889446466702</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8451968323902862</v>
+        <v>5.023626319614601</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6947855991871213</v>
+        <v>5.207028709953064</v>
       </c>
       <c r="G4" t="n">
-        <v>1.425129597400733</v>
+        <v>6.186496171442877</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.9738504931322118</v>
+        <v>0.8411752455834071</v>
       </c>
       <c r="I4" t="n">
-        <v>4.73107493575466</v>
+        <v>0.6918812668648573</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1504112332031649</v>
+        <v>1.419065534568517</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5799327650104463</v>
+        <v>1.409730946063732</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.38916137543472</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.411307742520673</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.9584414908851564</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.206539055950226</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.027275929098125</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.210678319436588</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.1901457809264</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.1492939787185498</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.5778902889851102</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5685557004803249</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.5479861298513128</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.5701324969372662</v>
       </c>
     </row>
     <row r="5">
@@ -608,34 +776,70 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9685497370093098</v>
+        <v>0.9698881290922886</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9833280580149606</v>
+        <v>1.032012595198869</v>
       </c>
       <c r="D5" t="n">
-        <v>14.53076741208253</v>
+        <v>13.67423265531376</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3816529114669949</v>
+        <v>13.96535841057239</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3993318269926661</v>
+        <v>12.51438321513197</v>
       </c>
       <c r="G5" t="n">
-        <v>1.160960325556776</v>
+        <v>13.09847841109867</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0147783210056508</v>
+        <v>0.3799394289281765</v>
       </c>
       <c r="I5" t="n">
-        <v>13.56221767507322</v>
+        <v>0.4221985870863751</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01767891552567125</v>
+        <v>1.488683363065025</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7793074140897813</v>
+        <v>1.599282058080037</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.357240006472364</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.267557036725364</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06212446610658018</v>
+      </c>
+      <c r="O5" t="n">
+        <v>12.70434452622147</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12.99547028148011</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>11.54449508603968</v>
+      </c>
+      <c r="R5" t="n">
+        <v>12.12859028200638</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.04225915815819864</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.108743934136848</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.219342629151861</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.9773005775441874</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.8876176077971878</v>
       </c>
     </row>
     <row r="6">
@@ -645,34 +849,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.513573980194313</v>
+        <v>1.51415165254623</v>
       </c>
       <c r="C6" t="n">
-        <v>1.006419285592197</v>
+        <v>1.011790435927412</v>
       </c>
       <c r="D6" t="n">
-        <v>8.725389507619232</v>
+        <v>7.869639472631155</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5203617935033406</v>
+        <v>7.510143915203348</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4661447124930512</v>
+        <v>7.900601669343906</v>
       </c>
       <c r="G6" t="n">
-        <v>1.106791931345981</v>
+        <v>8.277631412360071</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5071546946021164</v>
+        <v>0.5200546449324573</v>
       </c>
       <c r="I6" t="n">
-        <v>7.211815527424918</v>
+        <v>0.4728316765745479</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.05421708101028933</v>
+        <v>1.304881907658572</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5864301378426405</v>
+        <v>1.367534295413275</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.243400161246943</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.156648651897284</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.5023612166188185</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6.355487820084925</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.995992262657118</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.386450016797675</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6.763479759813841</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.0472229683579094</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.7848272627261142</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.8474796504808176</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.7233455163144858</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.6365940069648269</v>
       </c>
     </row>
   </sheetData>
